--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/სამტრედია.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/სამტრედია.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატისტიკა\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\განათლება\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD636188-83AE-4974-AC52-3486F6755A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="სამტრედია" sheetId="1" r:id="rId1"/>
@@ -91,9 +92,6 @@
     <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
   </si>
   <si>
-    <t>მონაცემები საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებების შესახებ სამტრედიის მუნიციპალიტეტში</t>
-  </si>
-  <si>
     <t>(სასწავლო წლის დასაწყისისთვის)</t>
   </si>
   <si>
@@ -104,12 +102,15 @@
   </si>
   <si>
     <t>პედაგოგების რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t>საჯარო და კერძო ზოგად საგანმანათლებლო დაწესებულებები სამტრედიის მუნიციპალიტეტში</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
@@ -233,12 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -255,10 +255,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -269,14 +269,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,351 +558,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="4" customWidth="1"/>
-    <col min="2" max="13" width="13" style="3" customWidth="1"/>
-    <col min="14" max="18" width="12" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="31" style="3" customWidth="1"/>
+    <col min="2" max="13" width="13" style="2" customWidth="1"/>
+    <col min="14" max="18" width="12" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11">
+        <v>37</v>
+      </c>
+      <c r="C4" s="11">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11">
+        <v>37</v>
+      </c>
+      <c r="E4" s="11">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11">
+        <v>37</v>
+      </c>
+      <c r="G4" s="11">
+        <v>37</v>
+      </c>
+      <c r="H4" s="11">
+        <v>37</v>
+      </c>
+      <c r="I4" s="11">
+        <v>37</v>
+      </c>
+      <c r="J4" s="11">
+        <v>37</v>
+      </c>
+      <c r="K4" s="11">
+        <v>37</v>
+      </c>
+      <c r="L4" s="11">
+        <v>37</v>
+      </c>
+      <c r="M4" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12">
-        <v>37</v>
-      </c>
-      <c r="D4" s="12">
-        <v>37</v>
-      </c>
-      <c r="E4" s="12">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12">
-        <v>37</v>
-      </c>
-      <c r="G4" s="12">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12">
-        <v>37</v>
-      </c>
-      <c r="J4" s="12">
-        <v>37</v>
-      </c>
-      <c r="K4" s="12">
-        <v>37</v>
-      </c>
-      <c r="L4" s="12">
-        <v>37</v>
-      </c>
-      <c r="M4" s="12">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="B5" s="12">
+        <v>7496</v>
+      </c>
+      <c r="C5" s="12">
+        <v>7036</v>
+      </c>
+      <c r="D5" s="12">
+        <v>6715</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6460</v>
+      </c>
+      <c r="F5" s="12">
+        <v>6319</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6253</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6283</v>
+      </c>
+      <c r="I5" s="12">
+        <v>6386</v>
+      </c>
+      <c r="J5" s="12">
+        <v>6383</v>
+      </c>
+      <c r="K5" s="12">
+        <v>6442</v>
+      </c>
+      <c r="L5" s="12">
+        <v>6612</v>
+      </c>
+      <c r="M5" s="12">
+        <v>6649</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13">
-        <v>7496</v>
-      </c>
-      <c r="C5" s="13">
-        <v>7036</v>
-      </c>
-      <c r="D5" s="13">
-        <v>6715</v>
-      </c>
-      <c r="E5" s="13">
-        <v>6460</v>
-      </c>
-      <c r="F5" s="13">
-        <v>6319</v>
-      </c>
-      <c r="G5" s="13">
-        <v>6253</v>
-      </c>
-      <c r="H5" s="13">
-        <v>6283</v>
-      </c>
-      <c r="I5" s="13">
-        <v>6386</v>
-      </c>
-      <c r="J5" s="13">
-        <v>6383</v>
-      </c>
-      <c r="K5" s="13">
-        <v>6442</v>
-      </c>
-      <c r="L5" s="13">
-        <v>6612</v>
-      </c>
-      <c r="M5" s="13">
-        <v>6649</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="14">
+        <v>850</v>
+      </c>
+      <c r="I6" s="14">
+        <v>904</v>
+      </c>
+      <c r="J6" s="14">
+        <v>887</v>
+      </c>
+      <c r="K6" s="14">
+        <v>833</v>
+      </c>
+      <c r="L6" s="14">
+        <v>842</v>
+      </c>
+      <c r="M6" s="14">
+        <v>831</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="15">
-        <v>850</v>
-      </c>
-      <c r="I6" s="15">
-        <v>904</v>
-      </c>
-      <c r="J6" s="15">
-        <v>887</v>
-      </c>
-      <c r="K6" s="15">
-        <v>833</v>
-      </c>
-      <c r="L6" s="15">
-        <v>842</v>
-      </c>
-      <c r="M6" s="15">
-        <v>831</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/სამტრედია.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/სამტრედია.xlsx
@@ -1,31 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\განათლება\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD636188-83AE-4974-AC52-3486F6755A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B09076C-79F5-499B-BE34-4E8D8D3918EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="600" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="სამტრედია" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+  <si>
+    <t>მონაცემები საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებების შესახებ სამტრედიის მუნიციპალიტეტში</t>
+  </si>
+  <si>
+    <t>(სასწავლო წლის დასაწყისისთვის)</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
   <si>
     <t>2017/2018</t>
   </si>
@@ -40,6 +62,45 @@
   </si>
   <si>
     <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>სკოლების რაოდენობა (ერთეული)</t>
+  </si>
+  <si>
+    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:   გოგო</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
+  </si>
+  <si>
+    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:    ქალი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               კაცი</t>
+  </si>
+  <si>
+    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
   </si>
   <si>
     <r>
@@ -49,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -58,111 +119,76 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
-  </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>─</t>
-  </si>
-  <si>
-    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
-  </si>
-  <si>
-    <t>(სასწავლო წლის დასაწყისისთვის)</t>
-  </si>
-  <si>
-    <t>სკოლების რაოდენობა (ერთეული)</t>
-  </si>
-  <si>
-    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
-  </si>
-  <si>
-    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
-  </si>
-  <si>
-    <t>საჯარო და კერძო ზოგად საგანმანათლებლო დაწესებულებები სამტრედიის მუნიციპალიტეტში</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -170,13 +196,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,20 +224,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -225,7 +234,18 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -234,51 +254,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,151 +586,156 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" style="3" customWidth="1"/>
-    <col min="2" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="18" width="12" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="10.7109375" style="2" customWidth="1"/>
+    <col min="16" max="18" width="12" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:18" ht="61.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>37</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>37</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>37</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>37</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>37</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>37</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>37</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>37</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>37</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>37</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>37</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="N4" s="23">
+        <v>36</v>
+      </c>
+      <c r="O4" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="21" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="12">
@@ -732,71 +774,364 @@
       <c r="M5" s="12">
         <v>6649</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="N5" s="12">
+        <v>6665</v>
+      </c>
+      <c r="O5" s="12">
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15">
+        <v>629</v>
+      </c>
+      <c r="D6" s="15">
+        <v>611</v>
+      </c>
+      <c r="E6" s="15">
+        <v>521</v>
+      </c>
+      <c r="F6" s="15">
+        <v>598</v>
+      </c>
+      <c r="G6" s="15">
+        <v>569</v>
+      </c>
+      <c r="H6" s="15">
+        <v>470</v>
+      </c>
+      <c r="I6" s="15">
+        <v>508</v>
+      </c>
+      <c r="J6" s="15">
+        <v>453</v>
+      </c>
+      <c r="K6" s="15">
+        <v>451</v>
+      </c>
+      <c r="L6" s="15">
+        <v>491</v>
+      </c>
+      <c r="M6" s="15">
+        <v>520</v>
+      </c>
+      <c r="N6" s="15">
+        <v>534</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="21" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12">
+        <v>301</v>
+      </c>
+      <c r="D7" s="12">
+        <v>299</v>
+      </c>
+      <c r="E7" s="12">
+        <v>274</v>
+      </c>
+      <c r="F7" s="12">
+        <v>299</v>
+      </c>
+      <c r="G7" s="12">
+        <v>271</v>
+      </c>
+      <c r="H7" s="12">
+        <v>224</v>
+      </c>
+      <c r="I7" s="12">
+        <v>240</v>
+      </c>
+      <c r="J7" s="12">
+        <v>210</v>
+      </c>
+      <c r="K7" s="12">
+        <v>214</v>
+      </c>
+      <c r="L7" s="12">
+        <v>235</v>
+      </c>
+      <c r="M7" s="12">
+        <v>250</v>
+      </c>
+      <c r="N7" s="12">
+        <v>253</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12">
+        <v>328</v>
+      </c>
+      <c r="D8" s="12">
+        <v>312</v>
+      </c>
+      <c r="E8" s="12">
+        <v>247</v>
+      </c>
+      <c r="F8" s="12">
+        <v>299</v>
+      </c>
+      <c r="G8" s="12">
+        <v>298</v>
+      </c>
+      <c r="H8" s="12">
+        <v>246</v>
+      </c>
+      <c r="I8" s="12">
+        <v>268</v>
+      </c>
+      <c r="J8" s="12">
+        <v>243</v>
+      </c>
+      <c r="K8" s="12">
+        <v>237</v>
+      </c>
+      <c r="L8" s="12">
+        <v>256</v>
+      </c>
+      <c r="M8" s="12">
+        <v>270</v>
+      </c>
+      <c r="N8" s="12">
+        <v>281</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="26">
+        <v>12.383474263439219</v>
+      </c>
+      <c r="D9" s="26">
+        <v>12.191107076229336</v>
+      </c>
+      <c r="E9" s="26">
+        <v>10.530783846060556</v>
+      </c>
+      <c r="F9" s="26">
+        <v>12.199226838299044</v>
+      </c>
+      <c r="G9" s="26">
+        <v>11.722653151621909</v>
+      </c>
+      <c r="H9" s="26">
+        <v>9.8151822073718282</v>
+      </c>
+      <c r="I9" s="26">
+        <v>10.783845459852465</v>
+      </c>
+      <c r="J9" s="26">
+        <v>9.7882454624027648</v>
+      </c>
+      <c r="K9" s="26">
+        <v>9.9205912760388024</v>
+      </c>
+      <c r="L9" s="26">
+        <v>11.025903012474316</v>
+      </c>
+      <c r="M9" s="26">
+        <v>11.886257657492914</v>
+      </c>
+      <c r="N9" s="26">
+        <v>12.75939930468442</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="21" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="12">
         <v>850</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I10" s="12">
         <v>904</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J10" s="12">
         <v>887</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K10" s="12">
         <v>833</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L10" s="12">
         <v>842</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M10" s="12">
         <v>831</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="N10" s="12">
+        <v>807</v>
+      </c>
+      <c r="O10" s="16">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="21" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="12">
+        <v>739</v>
+      </c>
+      <c r="I11" s="12">
+        <v>786</v>
+      </c>
+      <c r="J11" s="12">
+        <v>772</v>
+      </c>
+      <c r="K11" s="12">
+        <v>727</v>
+      </c>
+      <c r="L11" s="12">
+        <v>741</v>
+      </c>
+      <c r="M11" s="12">
+        <v>732</v>
+      </c>
+      <c r="N11" s="12">
+        <v>702</v>
+      </c>
+      <c r="O11" s="16">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="21" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="20">
+        <v>111</v>
+      </c>
+      <c r="I12" s="20">
+        <v>118</v>
+      </c>
+      <c r="J12" s="20">
+        <v>115</v>
+      </c>
+      <c r="K12" s="20">
+        <v>106</v>
+      </c>
+      <c r="L12" s="20">
+        <v>101</v>
+      </c>
+      <c r="M12" s="20">
+        <v>99</v>
+      </c>
+      <c r="N12" s="20">
+        <v>105</v>
+      </c>
+      <c r="O12" s="19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/სამტრედია.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/სამტრედია.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B09076C-79F5-499B-BE34-4E8D8D3918EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4357DD-96B1-4B46-8C84-A1055BB5BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="600" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="სამტრედია" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>მონაცემები საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებების შესახებ სამტრედიის მუნიციპალიტეტში</t>
   </si>
@@ -110,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,11 +119,17 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
 </sst>
 </file>
@@ -131,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -146,49 +152,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -196,10 +202,10 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +216,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14996795556505021"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -270,36 +294,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -308,6 +317,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -315,7 +327,33 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,11 +674,11 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
       <c r="A3" s="6"/>
@@ -671,465 +709,759 @@
       <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="20">
         <v>37</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="20">
         <v>37</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="20">
         <v>37</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="20">
         <v>37</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="20">
         <v>37</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="20">
         <v>37</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="20">
         <v>37</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="20">
         <v>37</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="20">
         <v>37</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="20">
         <v>37</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="20">
         <v>37</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="20">
         <v>37</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="21">
         <v>36</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="21">
         <v>36</v>
       </c>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="22">
         <v>7496</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="22">
         <v>7036</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="22">
         <v>6715</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="22">
         <v>6460</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="22">
         <v>6319</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="22">
         <v>6253</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="22">
         <v>6283</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="22">
         <v>6386</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="22">
         <v>6383</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="22">
         <v>6442</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="22">
         <v>6612</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="22">
         <v>6649</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="22">
         <v>6665</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="22">
         <v>6625</v>
       </c>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="21">
+        <v>566</v>
+      </c>
+      <c r="D6" s="24">
+        <v>485</v>
+      </c>
+      <c r="E6" s="25">
+        <v>465</v>
+      </c>
+      <c r="F6" s="25">
+        <v>526</v>
+      </c>
+      <c r="G6" s="24">
+        <v>546</v>
+      </c>
+      <c r="H6" s="21">
+        <v>556</v>
+      </c>
+      <c r="I6" s="21">
+        <v>466</v>
+      </c>
+      <c r="J6" s="25">
+        <v>464</v>
+      </c>
+      <c r="K6" s="25">
+        <v>451</v>
+      </c>
+      <c r="L6" s="24">
+        <v>508</v>
+      </c>
+      <c r="M6" s="24">
+        <v>644</v>
+      </c>
+      <c r="N6" s="21">
+        <v>631</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="21">
+        <v>268</v>
+      </c>
+      <c r="D7" s="21">
+        <v>227</v>
+      </c>
+      <c r="E7" s="21">
+        <v>212</v>
+      </c>
+      <c r="F7" s="21">
+        <v>253</v>
+      </c>
+      <c r="G7" s="21">
+        <v>262</v>
+      </c>
+      <c r="H7" s="21">
+        <v>253</v>
+      </c>
+      <c r="I7" s="21">
+        <v>238</v>
+      </c>
+      <c r="J7" s="21">
+        <v>196</v>
+      </c>
+      <c r="K7" s="21">
+        <v>211</v>
+      </c>
+      <c r="L7" s="21">
+        <v>231</v>
+      </c>
+      <c r="M7" s="21">
+        <v>296</v>
+      </c>
+      <c r="N7" s="21">
+        <v>312</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21">
+        <v>298</v>
+      </c>
+      <c r="D8" s="21">
+        <v>258</v>
+      </c>
+      <c r="E8" s="21">
+        <v>253</v>
+      </c>
+      <c r="F8" s="21">
+        <v>273</v>
+      </c>
+      <c r="G8" s="21">
+        <v>284</v>
+      </c>
+      <c r="H8" s="21">
+        <v>303</v>
+      </c>
+      <c r="I8" s="21">
+        <v>228</v>
+      </c>
+      <c r="J8" s="21">
+        <v>268</v>
+      </c>
+      <c r="K8" s="21">
+        <v>240</v>
+      </c>
+      <c r="L8" s="21">
+        <v>277</v>
+      </c>
+      <c r="M8" s="21">
+        <v>348</v>
+      </c>
+      <c r="N8" s="21">
+        <v>319</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" ht="30">
+      <c r="A9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="21">
+        <v>676</v>
+      </c>
+      <c r="D9" s="24">
+        <v>619</v>
+      </c>
+      <c r="E9" s="25">
+        <v>506</v>
+      </c>
+      <c r="F9" s="21">
+        <v>551</v>
+      </c>
+      <c r="G9" s="25">
+        <v>511</v>
+      </c>
+      <c r="H9" s="21">
+        <v>466</v>
+      </c>
+      <c r="I9" s="21">
+        <v>520</v>
+      </c>
+      <c r="J9" s="24">
+        <v>554</v>
+      </c>
+      <c r="K9" s="25">
+        <v>567</v>
+      </c>
+      <c r="L9" s="24">
+        <v>451</v>
+      </c>
+      <c r="M9" s="24">
+        <v>447</v>
+      </c>
+      <c r="N9" s="21">
+        <v>443</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="21">
+        <v>319</v>
+      </c>
+      <c r="D10" s="21">
+        <v>287</v>
+      </c>
+      <c r="E10" s="21">
+        <v>252</v>
+      </c>
+      <c r="F10" s="21">
+        <v>253</v>
+      </c>
+      <c r="G10" s="21">
+        <v>228</v>
+      </c>
+      <c r="H10" s="21">
+        <v>219</v>
+      </c>
+      <c r="I10" s="21">
+        <v>248</v>
+      </c>
+      <c r="J10" s="21">
+        <v>264</v>
+      </c>
+      <c r="K10" s="21">
+        <v>267</v>
+      </c>
+      <c r="L10" s="21">
+        <v>231</v>
+      </c>
+      <c r="M10" s="21">
+        <v>193</v>
+      </c>
+      <c r="N10" s="21">
+        <v>210</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="21">
+        <v>357</v>
+      </c>
+      <c r="D11" s="21">
+        <v>332</v>
+      </c>
+      <c r="E11" s="21">
+        <v>254</v>
+      </c>
+      <c r="F11" s="21">
+        <v>298</v>
+      </c>
+      <c r="G11" s="21">
+        <v>283</v>
+      </c>
+      <c r="H11" s="21">
+        <v>247</v>
+      </c>
+      <c r="I11" s="21">
+        <v>272</v>
+      </c>
+      <c r="J11" s="21">
+        <v>290</v>
+      </c>
+      <c r="K11" s="21">
+        <v>300</v>
+      </c>
+      <c r="L11" s="21">
+        <v>220</v>
+      </c>
+      <c r="M11" s="21">
+        <v>254</v>
+      </c>
+      <c r="N11" s="21">
+        <v>233</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" ht="30">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15">
-        <v>629</v>
-      </c>
-      <c r="D6" s="15">
-        <v>611</v>
-      </c>
-      <c r="E6" s="15">
-        <v>521</v>
-      </c>
-      <c r="F6" s="15">
-        <v>598</v>
-      </c>
-      <c r="G6" s="15">
-        <v>569</v>
-      </c>
-      <c r="H6" s="15">
-        <v>470</v>
-      </c>
-      <c r="I6" s="15">
-        <v>508</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="B12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="21">
+        <v>634</v>
+      </c>
+      <c r="D12" s="24">
+        <v>698</v>
+      </c>
+      <c r="E12" s="25">
+        <v>518</v>
+      </c>
+      <c r="F12" s="25">
+        <v>588</v>
+      </c>
+      <c r="G12" s="24">
+        <v>568</v>
+      </c>
+      <c r="H12" s="21">
+        <v>461</v>
+      </c>
+      <c r="I12" s="21">
+        <v>513</v>
+      </c>
+      <c r="J12" s="25">
         <v>453</v>
       </c>
-      <c r="K6" s="15">
-        <v>451</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="K12" s="25">
+        <v>434</v>
+      </c>
+      <c r="L12" s="24">
         <v>491</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M12" s="24">
         <v>520</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N12" s="22">
         <v>534</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="O12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12">
-        <v>301</v>
-      </c>
-      <c r="D7" s="12">
-        <v>299</v>
-      </c>
-      <c r="E7" s="12">
-        <v>274</v>
-      </c>
-      <c r="F7" s="12">
-        <v>299</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="B13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="21">
+        <v>308</v>
+      </c>
+      <c r="D13" s="21">
+        <v>338</v>
+      </c>
+      <c r="E13" s="21">
+        <v>273</v>
+      </c>
+      <c r="F13" s="21">
+        <v>296</v>
+      </c>
+      <c r="G13" s="21">
+        <v>270</v>
+      </c>
+      <c r="H13" s="21">
+        <v>219</v>
+      </c>
+      <c r="I13" s="21">
+        <v>242</v>
+      </c>
+      <c r="J13" s="21">
+        <v>210</v>
+      </c>
+      <c r="K13" s="21">
+        <v>208</v>
+      </c>
+      <c r="L13" s="21">
+        <v>235</v>
+      </c>
+      <c r="M13" s="21">
+        <v>250</v>
+      </c>
+      <c r="N13" s="22">
+        <v>253</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="21">
+        <v>326</v>
+      </c>
+      <c r="D14" s="21">
+        <v>360</v>
+      </c>
+      <c r="E14" s="21">
+        <v>245</v>
+      </c>
+      <c r="F14" s="21">
+        <v>292</v>
+      </c>
+      <c r="G14" s="21">
+        <v>298</v>
+      </c>
+      <c r="H14" s="21">
+        <v>242</v>
+      </c>
+      <c r="I14" s="21">
         <v>271</v>
       </c>
-      <c r="H7" s="12">
-        <v>224</v>
-      </c>
-      <c r="I7" s="12">
-        <v>240</v>
-      </c>
-      <c r="J7" s="12">
-        <v>210</v>
-      </c>
-      <c r="K7" s="12">
-        <v>214</v>
-      </c>
-      <c r="L7" s="12">
-        <v>235</v>
-      </c>
-      <c r="M7" s="12">
-        <v>250</v>
-      </c>
-      <c r="N7" s="12">
-        <v>253</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12">
-        <v>328</v>
-      </c>
-      <c r="D8" s="12">
-        <v>312</v>
-      </c>
-      <c r="E8" s="12">
-        <v>247</v>
-      </c>
-      <c r="F8" s="12">
-        <v>299</v>
-      </c>
-      <c r="G8" s="12">
-        <v>298</v>
-      </c>
-      <c r="H8" s="12">
-        <v>246</v>
-      </c>
-      <c r="I8" s="12">
-        <v>268</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="J14" s="21">
         <v>243</v>
       </c>
-      <c r="K8" s="12">
-        <v>237</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="K14" s="21">
+        <v>226</v>
+      </c>
+      <c r="L14" s="21">
         <v>256</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M14" s="21">
         <v>270</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N14" s="22">
         <v>281</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="O14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" ht="30" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="26">
-        <v>12.383474263439219</v>
-      </c>
-      <c r="D9" s="26">
-        <v>12.191107076229336</v>
-      </c>
-      <c r="E9" s="26">
-        <v>10.530783846060556</v>
-      </c>
-      <c r="F9" s="26">
-        <v>12.199226838299044</v>
-      </c>
-      <c r="G9" s="26">
-        <v>11.722653151621909</v>
-      </c>
-      <c r="H9" s="26">
-        <v>9.8151822073718282</v>
-      </c>
-      <c r="I9" s="26">
-        <v>10.783845459852465</v>
-      </c>
-      <c r="J9" s="26">
-        <v>9.7882454624027648</v>
-      </c>
-      <c r="K9" s="26">
-        <v>9.9205912760388024</v>
-      </c>
-      <c r="L9" s="26">
-        <v>11.025903012474316</v>
-      </c>
-      <c r="M9" s="26">
-        <v>11.886257657492914</v>
-      </c>
-      <c r="N9" s="26">
+      <c r="B15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="26">
+        <v>8.83905144806808</v>
+      </c>
+      <c r="D15" s="26">
+        <v>10.773335489347939</v>
+      </c>
+      <c r="E15" s="26">
+        <v>9.0168198370036414</v>
+      </c>
+      <c r="F15" s="26">
+        <v>9.2709910689452713</v>
+      </c>
+      <c r="G15" s="26">
+        <v>10.211966168946434</v>
+      </c>
+      <c r="H15" s="26">
+        <v>9.7861274743936733</v>
+      </c>
+      <c r="I15" s="26">
+        <v>8.4917891097666374</v>
+      </c>
+      <c r="J15" s="26">
+        <v>8.8207474538615518</v>
+      </c>
+      <c r="K15" s="26">
+        <v>8.8701256413999072</v>
+      </c>
+      <c r="L15" s="26">
+        <v>8.1146566700192011</v>
+      </c>
+      <c r="M15" s="26">
+        <v>10.134504016439379</v>
+      </c>
+      <c r="N15" s="26">
         <v>12.75939930468442</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="O15" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="B16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="22">
         <v>850</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I16" s="22">
         <v>904</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J16" s="22">
         <v>887</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K16" s="22">
         <v>833</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L16" s="22">
         <v>842</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M16" s="22">
         <v>831</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N16" s="22">
         <v>807</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O16" s="23">
         <v>822</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="11" t="s">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="B17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="22">
         <v>739</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I17" s="22">
         <v>786</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J17" s="22">
         <v>772</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K17" s="22">
         <v>727</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L17" s="22">
         <v>741</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M17" s="22">
         <v>732</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N17" s="22">
         <v>702</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O17" s="23">
         <v>719</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="18" t="s">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="B18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="28">
         <v>111</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I18" s="28">
         <v>118</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J18" s="28">
         <v>115</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K18" s="28">
         <v>106</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L18" s="28">
         <v>101</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M18" s="28">
         <v>99</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N18" s="28">
         <v>105</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O18" s="27">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="24" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
